--- a/spatial aggregation/data/carrefour_stores_latlong.xlsx
+++ b/spatial aggregation/data/carrefour_stores_latlong.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhauzcom-my.sharepoint.com/personal/alvaro_matsuda_dhauz_com/Documents/Área de Trabalho/Medium/spatial aggregation/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhauzcom-my.sharepoint.com/personal/alvaro_matsuda_dhauz_com/Documents/Área de Trabalho/Medium/medium_posts/spatial aggregation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_2A1DAAA14167040E62355476585DCE3A8746D8A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70949352-C6FB-4509-A2A7-7F0C27E3C17D}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_2A1DAAA14167040E62355476585DCE3A8746D8A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3621E633-2A26-430B-94D3-13365EF5A7A5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$128</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="394">
   <si>
     <t>lat</t>
   </si>
@@ -34,21 +34,12 @@
     <t>Market</t>
   </si>
   <si>
-    <t>Market Perdizes</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>05014000</t>
-  </si>
-  <si>
     <t>São Paulo</t>
   </si>
   <si>
-    <t>Rua Monte Alegre, 613</t>
-  </si>
-  <si>
     <t>Express Market Vila Olímpia</t>
   </si>
   <si>
@@ -94,15 +85,6 @@
     <t>Rua José da Silva Ribeiro, 183</t>
   </si>
   <si>
-    <t>Market Sto André II</t>
-  </si>
-  <si>
-    <t>09030320</t>
-  </si>
-  <si>
-    <t>Avenida João Ramalho, 345</t>
-  </si>
-  <si>
     <t>Market Higienópolis</t>
   </si>
   <si>
@@ -166,24 +148,6 @@
     <t>Estrada do Pêssego, 1200</t>
   </si>
   <si>
-    <t>Carrefour Hiper Anchieta</t>
-  </si>
-  <si>
-    <t>04246900</t>
-  </si>
-  <si>
-    <t>Via Anchieta, 3398</t>
-  </si>
-  <si>
-    <t>Carrefour Hiper Tamboré</t>
-  </si>
-  <si>
-    <t>06460930</t>
-  </si>
-  <si>
-    <t>Avenida Piracema, 669</t>
-  </si>
-  <si>
     <t>Carrefour Hiper Shopping Eldorado</t>
   </si>
   <si>
@@ -208,15 +172,6 @@
     <t>Avenida Rio das Pedras, 555</t>
   </si>
   <si>
-    <t>Carrefour Hiper Penha</t>
-  </si>
-  <si>
-    <t>03653000</t>
-  </si>
-  <si>
-    <t>Avenida Amador Bueno da Veiga, 2521</t>
-  </si>
-  <si>
     <t>Carrefour Hiper Pinheiros</t>
   </si>
   <si>
@@ -574,15 +529,6 @@
     <t>Rua Bela Cintra, 1149</t>
   </si>
   <si>
-    <t>Express Coronel Oliveira de Lima</t>
-  </si>
-  <si>
-    <t>09010000</t>
-  </si>
-  <si>
-    <t>Rua Coronel Oliveira Lima, 176</t>
-  </si>
-  <si>
     <t>Express Berrini 1</t>
   </si>
   <si>
@@ -628,30 +574,6 @@
     <t>Rua Doutor Albuquerque Lins, 603</t>
   </si>
   <si>
-    <t>Express Rio Negro II</t>
-  </si>
-  <si>
-    <t>06454000</t>
-  </si>
-  <si>
-    <t>Alameda Rio Negro, 585</t>
-  </si>
-  <si>
-    <t>Express Shopping Santo André</t>
-  </si>
-  <si>
-    <t>09020160</t>
-  </si>
-  <si>
-    <t>Express West Plaza</t>
-  </si>
-  <si>
-    <t>05003900</t>
-  </si>
-  <si>
-    <t>Avenida Antártica, 380</t>
-  </si>
-  <si>
     <t>Express Vieira de Carvalho</t>
   </si>
   <si>
@@ -679,15 +601,6 @@
     <t>Rua Ezequiel Freire, 432</t>
   </si>
   <si>
-    <t>Express Piracuama</t>
-  </si>
-  <si>
-    <t>05017040</t>
-  </si>
-  <si>
-    <t>Rua Piracuama, 178</t>
-  </si>
-  <si>
     <t>Express Nossa Senhora da Lapa</t>
   </si>
   <si>
@@ -697,15 +610,6 @@
     <t>Rua Nossa Senhora da Lapa, 449</t>
   </si>
   <si>
-    <t>Express Conjunto Nacional</t>
-  </si>
-  <si>
-    <t>01311300</t>
-  </si>
-  <si>
-    <t>Avenida Paulista, 2073</t>
-  </si>
-  <si>
     <t>Express Jabaquara</t>
   </si>
   <si>
@@ -751,15 +655,6 @@
     <t>Rua Pamplona, 1079</t>
   </si>
   <si>
-    <t>Express Ribeirão Preto</t>
-  </si>
-  <si>
-    <t>01331000</t>
-  </si>
-  <si>
-    <t>Alameda Ribeirão Preto, 580</t>
-  </si>
-  <si>
     <t>Express Faria Lima 2</t>
   </si>
   <si>
@@ -832,15 +727,6 @@
     <t>Rua Teodoro Sampaio, 2901</t>
   </si>
   <si>
-    <t>Express Tamandaré</t>
-  </si>
-  <si>
-    <t>01525000</t>
-  </si>
-  <si>
-    <t>Rua Tamandaré, 620</t>
-  </si>
-  <si>
     <t>Express Faria Lima</t>
   </si>
   <si>
@@ -922,24 +808,6 @@
     <t>Rua Guatapará, 179</t>
   </si>
   <si>
-    <t>Express Padre Antônio</t>
-  </si>
-  <si>
-    <t>04563010</t>
-  </si>
-  <si>
-    <t>Rua Padre Antônio dos Santos, 255</t>
-  </si>
-  <si>
-    <t>Express Moema</t>
-  </si>
-  <si>
-    <t>04077020</t>
-  </si>
-  <si>
-    <t>Avenida Moema, 41</t>
-  </si>
-  <si>
     <t>Express Vista Verde</t>
   </si>
   <si>
@@ -985,15 +853,6 @@
     <t>Rua Augusta, 2074</t>
   </si>
   <si>
-    <t>Express Rouxinol</t>
-  </si>
-  <si>
-    <t>04514103</t>
-  </si>
-  <si>
-    <t>Rua Tuim, 746</t>
-  </si>
-  <si>
     <t>Express Teodoro Sampaio 2</t>
   </si>
   <si>
@@ -1039,15 +898,6 @@
     <t>Avenida Jabaquara, 2858</t>
   </si>
   <si>
-    <t>Express Apucarana</t>
-  </si>
-  <si>
-    <t>03311002</t>
-  </si>
-  <si>
-    <t>Rua Apucarana, 474</t>
-  </si>
-  <si>
     <t>Express Shopping Pátio Osasco</t>
   </si>
   <si>
@@ -1057,15 +907,6 @@
     <t>Avenida dos Autonomistas, 896</t>
   </si>
   <si>
-    <t>Express Tuiuti</t>
-  </si>
-  <si>
-    <t>03307005</t>
-  </si>
-  <si>
-    <t>Rua Tuiuti, 2413</t>
-  </si>
-  <si>
     <t>Express Ibirapuera</t>
   </si>
   <si>
@@ -1201,15 +1042,6 @@
     <t>Alameda Santos, 1787</t>
   </si>
   <si>
-    <t>Express Juscelino Kubtscheck</t>
-  </si>
-  <si>
-    <t>04543011</t>
-  </si>
-  <si>
-    <t>Avenida Presidente Juscelino Kubitscheck, 1309</t>
-  </si>
-  <si>
     <t>Express Verbo Divino</t>
   </si>
   <si>
@@ -1237,15 +1069,6 @@
     <t>Rua João Cachoeira, 361</t>
   </si>
   <si>
-    <t>Express São Joaquim</t>
-  </si>
-  <si>
-    <t>01502001</t>
-  </si>
-  <si>
-    <t>Avenida Liberdade, 896</t>
-  </si>
-  <si>
     <t>Express Lorena</t>
   </si>
   <si>
@@ -1264,15 +1087,6 @@
     <t>Avenida Adolfo Pinheiro, 326</t>
   </si>
   <si>
-    <t>Express Rodrigues Abreu</t>
-  </si>
-  <si>
-    <t>04004080</t>
-  </si>
-  <si>
-    <t>Praça Rodrigues de Abreu, 210</t>
-  </si>
-  <si>
     <t>Express Xavier de Toledo</t>
   </si>
   <si>
@@ -1300,15 +1114,6 @@
     <t>Rua Pedro de Toledo, 145</t>
   </si>
   <si>
-    <t>Express Cotovia</t>
-  </si>
-  <si>
-    <t>04517000</t>
-  </si>
-  <si>
-    <t>Rua Cotovia, 287</t>
-  </si>
-  <si>
     <t>Express Senador Queirós</t>
   </si>
   <si>
@@ -1400,9 +1205,6 @@
   </si>
   <si>
     <t>Avernida Reboucas, 3970</t>
-  </si>
-  <si>
-    <t>Ruia Dona Elisa Flaquer, 200</t>
   </si>
 </sst>
 </file>
@@ -1489,6 +1291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,25 +1602,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1828,28 +1634,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2">
-        <v>-23.404015399999999</v>
+        <v>-23.594703299999999</v>
       </c>
       <c r="I2">
-        <v>-46.454854300000001</v>
+        <v>-46.690205900000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1860,25 +1666,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>-23.594703299999999</v>
+        <v>-23.5176941</v>
       </c>
       <c r="I3">
-        <v>-46.690205900000002</v>
+        <v>-46.679204900000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1889,25 +1695,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H4">
-        <v>-23.5176941</v>
+        <v>-23.583541799999999</v>
       </c>
       <c r="I4">
-        <v>-46.679204900000002</v>
+        <v>-46.673782600000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1918,25 +1724,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5">
-        <v>-23.583541799999999</v>
+        <v>-23.5697662</v>
       </c>
       <c r="I5">
-        <v>-46.673782600000003</v>
+        <v>-46.632703399999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1947,25 +1753,25 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6">
-        <v>-23.5697662</v>
+        <v>-23.622970800000001</v>
       </c>
       <c r="I6">
-        <v>-46.632703399999997</v>
+        <v>-46.738298100000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1976,25 +1782,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
       <c r="H7">
-        <v>-23.622970800000001</v>
+        <v>-23.537695849999999</v>
       </c>
       <c r="I7">
-        <v>-46.738298100000002</v>
+        <v>-46.657602999999988</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2005,25 +1811,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8">
-        <v>-23.664012</v>
+        <v>-23.617383221858599</v>
       </c>
       <c r="I8">
-        <v>-46.5289912</v>
+        <v>-46.734539385657598</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2034,25 +1840,25 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9">
-        <v>-23.537695849999999</v>
+        <v>-23.556460300000001</v>
       </c>
       <c r="I9">
-        <v>-46.657602999999988</v>
+        <v>-46.656970999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2063,25 +1869,25 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
       </c>
       <c r="H10">
-        <v>-23.617383221858599</v>
+        <v>-23.573006299999999</v>
       </c>
       <c r="I10">
-        <v>-46.734539385657598</v>
+        <v>-46.647382299999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2092,4060 +1898,3422 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="H11">
-        <v>-23.556460300000001</v>
+        <v>-23.604082999999999</v>
       </c>
       <c r="I11">
-        <v>-46.656970999999999</v>
+        <v>-46.659184500000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12">
-        <v>-23.573006299999999</v>
+        <v>-23.5414801839296</v>
       </c>
       <c r="I12">
-        <v>-46.647382299999997</v>
+        <v>-46.7306108213198</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>457</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>-23.604082999999999</v>
+        <v>-23.584788499999998</v>
       </c>
       <c r="I13">
-        <v>-46.659184500000002</v>
+        <v>-46.4421125</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="H14">
-        <v>-23.5414801839296</v>
+        <v>-23.571583418913502</v>
       </c>
       <c r="I14">
-        <v>-46.7306108213198</v>
+        <v>-46.696212072163597</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
       <c r="H15">
-        <v>-23.584788499999998</v>
+        <v>-23.589836300000002</v>
       </c>
       <c r="I15">
-        <v>-46.4421125</v>
+        <v>-46.797646099999987</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
       <c r="H16">
-        <v>-23.681311999999998</v>
+        <v>-23.559556950000001</v>
       </c>
       <c r="I16">
-        <v>-46.5676439</v>
+        <v>-46.515927266791998</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H17">
-        <v>-23.5057771</v>
+        <v>-23.5582481</v>
       </c>
       <c r="I17">
-        <v>-46.834135500000002</v>
+        <v>-46.709783999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>458</v>
-      </c>
       <c r="H18">
-        <v>-23.571583418913502</v>
+        <v>-23.560320999999998</v>
       </c>
       <c r="I18">
-        <v>-46.696212072163597</v>
+        <v>-46.560091244714911</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
       </c>
       <c r="H19">
-        <v>-23.589836300000002</v>
+        <v>-23.485479995063201</v>
       </c>
       <c r="I19">
-        <v>-46.797646099999987</v>
+        <v>-46.739207190071802</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>-23.559556950000001</v>
+        <v>-23.573006299999999</v>
       </c>
       <c r="I20">
-        <v>-46.515927266791998</v>
+        <v>-46.647382299999997</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
       <c r="H21">
-        <v>-23.011266200000001</v>
+        <v>-23.6182692</v>
       </c>
       <c r="I21">
-        <v>-45.549427700000003</v>
+        <v>-46.6241609</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
       <c r="H22">
-        <v>-23.5582481</v>
+        <v>-23.5364532046442</v>
       </c>
       <c r="I22">
-        <v>-46.709783999999999</v>
+        <v>-46.581730428122697</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
       <c r="H23">
-        <v>-23.560320999999998</v>
+        <v>-23.513289799999999</v>
       </c>
       <c r="I23">
-        <v>-46.560091244714911</v>
+        <v>-46.657525499999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
-      </c>
       <c r="H24">
-        <v>-23.485479995063201</v>
+        <v>-23.5220409</v>
       </c>
       <c r="I24">
-        <v>-46.739207190071802</v>
+        <v>-46.599231000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
       <c r="H25">
-        <v>-23.573006299999999</v>
+        <v>-23.6407396</v>
       </c>
       <c r="I25">
-        <v>-46.647382299999997</v>
+        <v>-46.736560300000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>76</v>
       </c>
       <c r="H26">
-        <v>-23.6182692</v>
+        <v>-23.564224249999999</v>
       </c>
       <c r="I26">
-        <v>-46.6241609</v>
+        <v>-46.612458250658058</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>79</v>
       </c>
       <c r="H27">
-        <v>-23.5364532046442</v>
+        <v>-23.684609600000002</v>
       </c>
       <c r="I27">
-        <v>-46.581730428122697</v>
+        <v>-46.692113200000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
       </c>
       <c r="H28">
-        <v>-23.513289799999999</v>
+        <v>-23.604641999999998</v>
       </c>
       <c r="I28">
-        <v>-46.657525499999998</v>
+        <v>-46.675016399999997</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>85</v>
       </c>
       <c r="H29">
-        <v>-23.5220409</v>
+        <v>-23.514027615713701</v>
       </c>
       <c r="I29">
-        <v>-46.599231000000003</v>
+        <v>-46.619882477417697</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
         <v>88</v>
       </c>
       <c r="H30">
-        <v>-23.6407396</v>
+        <v>-23.639257350000001</v>
       </c>
       <c r="I30">
-        <v>-46.736560300000001</v>
+        <v>-46.641956773513151</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
         <v>91</v>
       </c>
       <c r="H31">
-        <v>-23.564224249999999</v>
+        <v>-23.513077899999999</v>
       </c>
       <c r="I31">
-        <v>-46.612458250658058</v>
+        <v>-46.676268</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
       </c>
       <c r="H32">
-        <v>-23.684609600000002</v>
+        <v>-23.567619400000002</v>
       </c>
       <c r="I32">
-        <v>-46.692113200000001</v>
+        <v>-46.6575633</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>97</v>
       </c>
       <c r="H33">
-        <v>-23.604641999999998</v>
+        <v>-23.586617467587011</v>
       </c>
       <c r="I33">
-        <v>-46.675016399999997</v>
+        <v>-46.724991000835423</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H34">
-        <v>-23.514027615713701</v>
+        <v>-23.5403976338593</v>
       </c>
       <c r="I34">
-        <v>-46.619882477417697</v>
+        <v>-46.470667300856597</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35">
-        <v>-23.639257350000001</v>
+        <v>-23.6137984</v>
       </c>
       <c r="I35">
-        <v>-46.641956773513151</v>
+        <v>-46.6960604</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36">
-        <v>-23.513077899999999</v>
+        <v>-23.648648839166899</v>
       </c>
       <c r="I36">
-        <v>-46.676268</v>
+        <v>-46.7289025385153</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37">
-        <v>-23.567619400000002</v>
+        <v>-23.560602100000001</v>
       </c>
       <c r="I37">
-        <v>-46.6575633</v>
+        <v>-46.689736600000003</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H38">
-        <v>-23.586617467587011</v>
+        <v>-23.595118500000002</v>
       </c>
       <c r="I38">
-        <v>-46.724991000835423</v>
+        <v>-46.6836099</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>116</v>
       </c>
       <c r="H39">
-        <v>-23.5403976338593</v>
+        <v>-23.643611400000001</v>
       </c>
       <c r="I39">
-        <v>-46.470667300856597</v>
+        <v>-46.711714700000002</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>119</v>
       </c>
       <c r="H40">
-        <v>-23.6137984</v>
+        <v>-23.679948199999998</v>
       </c>
       <c r="I40">
-        <v>-46.6960604</v>
+        <v>-46.684692524125168</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
         <v>122</v>
       </c>
       <c r="H41">
-        <v>-23.648648839166899</v>
+        <v>-23.65318465</v>
       </c>
       <c r="I41">
-        <v>-46.7289025385153</v>
+        <v>-46.710213288078279</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
         <v>125</v>
       </c>
       <c r="H42">
-        <v>-23.560602100000001</v>
+        <v>-23.528941195419851</v>
       </c>
       <c r="I42">
-        <v>-46.689736600000003</v>
+        <v>-46.639032487022902</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>128</v>
       </c>
       <c r="H43">
-        <v>-23.595118500000002</v>
+        <v>-23.555450799999999</v>
       </c>
       <c r="I43">
-        <v>-46.6836099</v>
+        <v>-46.657260100000002</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
         <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>131</v>
       </c>
       <c r="H44">
-        <v>-23.643611400000001</v>
+        <v>-23.608414199999999</v>
       </c>
       <c r="I44">
-        <v>-46.711714700000002</v>
+        <v>-46.692884300000003</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>134</v>
       </c>
       <c r="H45">
-        <v>-23.679948199999998</v>
+        <v>-23.606530861946101</v>
       </c>
       <c r="I45">
-        <v>-46.684692524125168</v>
+        <v>-46.693644450377597</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
         <v>137</v>
       </c>
       <c r="H46">
-        <v>-23.65318465</v>
+        <v>-23.5470282</v>
       </c>
       <c r="I46">
-        <v>-46.710213288078279</v>
+        <v>-46.634901300000003</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" t="s">
         <v>140</v>
       </c>
       <c r="H47">
-        <v>-23.528941195419851</v>
+        <v>-23.5483741</v>
       </c>
       <c r="I47">
-        <v>-46.639032487022902</v>
+        <v>-46.637220599999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
         <v>143</v>
       </c>
       <c r="H48">
-        <v>-23.555450799999999</v>
+        <v>-23.586390600000001</v>
       </c>
       <c r="I48">
-        <v>-46.657260100000002</v>
+        <v>-46.677268499999997</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
         <v>146</v>
       </c>
       <c r="H49">
-        <v>-23.608414199999999</v>
+        <v>-23.5703014184324</v>
       </c>
       <c r="I49">
-        <v>-46.692884300000003</v>
+        <v>-46.646199283648798</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>149</v>
       </c>
       <c r="H50">
-        <v>-23.606530861946101</v>
+        <v>-23.535737969245989</v>
       </c>
       <c r="I50">
-        <v>-46.693644450377597</v>
+        <v>-46.662566556908303</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>152</v>
       </c>
       <c r="H51">
-        <v>-23.5470282</v>
+        <v>-23.565346900000002</v>
       </c>
       <c r="I51">
-        <v>-46.634901300000003</v>
+        <v>-46.685048399999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
         <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>155</v>
       </c>
       <c r="H52">
-        <v>-23.5483741</v>
+        <v>-23.607928999999999</v>
       </c>
       <c r="I52">
-        <v>-46.637220599999999</v>
+        <v>-46.735850900000003</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
         <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
         <v>158</v>
       </c>
       <c r="H53">
-        <v>-23.586390600000001</v>
+        <v>-23.524487400000002</v>
       </c>
       <c r="I53">
-        <v>-46.677268499999997</v>
+        <v>-46.703136399999998</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
         <v>161</v>
       </c>
       <c r="H54">
-        <v>-23.5703014184324</v>
+        <v>-23.546532899999999</v>
       </c>
       <c r="I54">
-        <v>-46.646199283648798</v>
+        <v>-46.650877199999996</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
         <v>164</v>
       </c>
       <c r="H55">
-        <v>-23.535737969245989</v>
+        <v>-23.6110747</v>
       </c>
       <c r="I55">
-        <v>-46.662566556908303</v>
+        <v>-46.696623459323618</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
         <v>167</v>
       </c>
       <c r="H56">
-        <v>-23.565346900000002</v>
+        <v>-23.557058850000001</v>
       </c>
       <c r="I56">
-        <v>-46.685048399999999</v>
+        <v>-46.662417196421487</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
         <v>170</v>
       </c>
       <c r="H57">
-        <v>-23.607928999999999</v>
+        <v>-23.609895184165101</v>
       </c>
       <c r="I57">
-        <v>-46.735850900000003</v>
+        <v>-46.6943133231552</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
         <v>173</v>
       </c>
       <c r="H58">
-        <v>-23.524487400000002</v>
+        <v>-23.620885600000001</v>
       </c>
       <c r="I58">
-        <v>-46.703136399999998</v>
+        <v>-46.6935334</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
         <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
         <v>176</v>
       </c>
       <c r="H59">
-        <v>-23.546532899999999</v>
+        <v>-23.556797199999998</v>
       </c>
       <c r="I59">
-        <v>-46.650877199999996</v>
+        <v>-46.661240100000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
         <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
         <v>179</v>
       </c>
       <c r="H60">
-        <v>-23.6110747</v>
+        <v>-23.597054499999999</v>
       </c>
       <c r="I60">
-        <v>-46.696623459323618</v>
+        <v>-46.636586700000002</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
         <v>182</v>
       </c>
       <c r="H61">
-        <v>-23.557058850000001</v>
+        <v>-23.53535278634622</v>
       </c>
       <c r="I61">
-        <v>-46.662417196421487</v>
+        <v>-46.656460736082828</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
         <v>185</v>
       </c>
       <c r="H62">
-        <v>-23.705419899999999</v>
+        <v>-23.542169699999999</v>
       </c>
       <c r="I62">
-        <v>-46.425029700000003</v>
+        <v>-46.643249900000001</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
         <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
         <v>188</v>
       </c>
       <c r="H63">
-        <v>-23.609895184165101</v>
+        <v>-23.5626125</v>
       </c>
       <c r="I63">
-        <v>-46.6943133231552</v>
+        <v>-46.645225600000003</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
         <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
       </c>
       <c r="H64">
-        <v>-23.620885600000001</v>
+        <v>-23.5023692</v>
       </c>
       <c r="I64">
-        <v>-46.6935334</v>
+        <v>-46.623501900000001</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G65" t="s">
         <v>194</v>
       </c>
       <c r="H65">
-        <v>-23.556797199999998</v>
+        <v>-23.523423600000001</v>
       </c>
       <c r="I65">
-        <v>-46.661240100000001</v>
+        <v>-46.704417203838183</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
         <v>197</v>
       </c>
       <c r="H66">
-        <v>-23.597054499999999</v>
+        <v>-23.616341500000001</v>
       </c>
       <c r="I66">
-        <v>-46.636586700000002</v>
+        <v>-46.6389341</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
         <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
         <v>200</v>
       </c>
       <c r="H67">
-        <v>-23.53535278634622</v>
+        <v>-23.603730899999999</v>
       </c>
       <c r="I67">
-        <v>-46.656460736082828</v>
+        <v>-46.636509599999997</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
         <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" t="s">
         <v>203</v>
       </c>
       <c r="H68">
-        <v>-23.498853199999999</v>
+        <v>-23.566714000000001</v>
       </c>
       <c r="I68">
-        <v>-46.848376700000003</v>
+        <v>-46.6514004</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>459</v>
+        <v>206</v>
       </c>
       <c r="H69">
-        <v>-23.6577959864705</v>
+        <v>-23.537115100000001</v>
       </c>
       <c r="I69">
-        <v>-46.527639024189803</v>
+        <v>-46.68541431878397</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H70">
-        <v>-22.7045341</v>
+        <v>-23.566875631460679</v>
       </c>
       <c r="I70">
-        <v>-47.0009783</v>
+        <v>-46.656708055056178</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H71">
-        <v>-23.542169699999999</v>
+        <v>-23.574081700000001</v>
       </c>
       <c r="I71">
-        <v>-46.643249900000001</v>
+        <v>-46.688561900000003</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H72">
-        <v>-23.5626125</v>
+        <v>-23.587958799999999</v>
       </c>
       <c r="I72">
-        <v>-46.645225600000003</v>
+        <v>-46.716622299999997</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H73">
-        <v>-23.5023692</v>
+        <v>-23.61505155</v>
       </c>
       <c r="I73">
-        <v>-46.623501900000001</v>
+        <v>-46.703833085939948</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H74">
-        <v>-23.972973799999998</v>
+        <v>-23.537016999999999</v>
       </c>
       <c r="I74">
-        <v>-46.202902000000002</v>
+        <v>-46.593228699999997</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H75">
-        <v>-23.523423600000001</v>
+        <v>-23.597054499999999</v>
       </c>
       <c r="I75">
-        <v>-46.704417203838183</v>
+        <v>-46.636586700000002</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H76">
-        <v>-23.651214499999998</v>
+        <v>-23.5502459</v>
       </c>
       <c r="I76">
-        <v>-47.162284300000003</v>
+        <v>-46.641621000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H77">
-        <v>-23.616341500000001</v>
+        <v>-23.606712686111109</v>
       </c>
       <c r="I77">
-        <v>-46.6389341</v>
+        <v>-46.660637897222223</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H78">
-        <v>-23.603730899999999</v>
+        <v>-23.5676801</v>
       </c>
       <c r="I78">
-        <v>-46.636509599999997</v>
+        <v>-46.6953563</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H79">
-        <v>-23.566714000000001</v>
+        <v>-23.572304800000001</v>
       </c>
       <c r="I79">
-        <v>-46.6514004</v>
+        <v>-46.689738400000003</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H80">
-        <v>-23.537115100000001</v>
+        <v>-23.620888300000001</v>
       </c>
       <c r="I80">
-        <v>-46.68541431878397</v>
+        <v>-46.678564100000003</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H81">
-        <v>-23.566875631460679</v>
+        <v>-23.548890799999999</v>
       </c>
       <c r="I81">
-        <v>-46.656708055056178</v>
+        <v>-46.636869099999998</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H82">
-        <v>-22.4491513</v>
+        <v>-23.552984615931699</v>
       </c>
       <c r="I82">
-        <v>-46.935602699999997</v>
+        <v>-46.634960580386903</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H83">
-        <v>-23.574081700000001</v>
+        <v>-23.558756500000001</v>
       </c>
       <c r="I83">
-        <v>-46.688561900000003</v>
+        <v>-46.641789299999999</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H84">
-        <v>-23.587958799999999</v>
+        <v>-23.558494400000001</v>
       </c>
       <c r="I84">
-        <v>-46.716622299999997</v>
+        <v>-46.659450900000003</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H85">
-        <v>-23.61505155</v>
+        <v>-23.557422800000001</v>
       </c>
       <c r="I85">
-        <v>-46.703833085939948</v>
+        <v>-46.676962799999998</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H86">
-        <v>-23.537016999999999</v>
+        <v>-23.548014899999998</v>
       </c>
       <c r="I86">
-        <v>-46.593228699999997</v>
+        <v>-46.642051899999998</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C87" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H87">
-        <v>-23.597054499999999</v>
+        <v>-23.634152400000001</v>
       </c>
       <c r="I87">
-        <v>-46.636586700000002</v>
+        <v>-46.640015200000001</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H88">
-        <v>-23.5502459</v>
+        <v>-23.543154300000001</v>
       </c>
       <c r="I88">
-        <v>-46.641621000000001</v>
+        <v>-46.7320761</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H89">
-        <v>-23.606712686111109</v>
+        <v>-23.478211099999999</v>
       </c>
       <c r="I89">
-        <v>-46.660637897222223</v>
+        <v>-46.609409300000003</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H90">
-        <v>-23.5676801</v>
+        <v>-23.5673861</v>
       </c>
       <c r="I90">
-        <v>-46.6953563</v>
+        <v>-46.621552249999993</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H91">
-        <v>-22.822199999999999</v>
+        <v>-23.6018280596114</v>
       </c>
       <c r="I91">
-        <v>-45.195880600000002</v>
+        <v>-46.667353866112897</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H92">
-        <v>-23.572304800000001</v>
+        <v>-23.5603056</v>
       </c>
       <c r="I92">
-        <v>-46.689738400000003</v>
+        <v>-46.662652100000003</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H93">
-        <v>-23.620888300000001</v>
+        <v>-23.566077100000001</v>
       </c>
       <c r="I93">
-        <v>-46.678564100000003</v>
+        <v>-46.6918553</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H94">
-        <v>-23.548890799999999</v>
+        <v>-23.578374400000001</v>
       </c>
       <c r="I94">
-        <v>-46.636869099999998</v>
+        <v>-46.641305299999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H95">
-        <v>-23.552984615931699</v>
+        <v>-23.501903299999999</v>
       </c>
       <c r="I95">
-        <v>-46.634960580386903</v>
+        <v>-46.6263115</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H96">
-        <v>-23.558756500000001</v>
+        <v>-23.5679321</v>
       </c>
       <c r="I96">
-        <v>-46.641789299999999</v>
+        <v>-46.649376500000002</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H97">
-        <v>-23.558494400000001</v>
+        <v>-23.6279875</v>
       </c>
       <c r="I97">
-        <v>-46.659450900000003</v>
+        <v>-46.644018240000001</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H98">
-        <v>-23.557422800000001</v>
+        <v>-23.5488526</v>
       </c>
       <c r="I98">
-        <v>-46.676962799999998</v>
+        <v>-46.758746600000002</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H99">
-        <v>-23.548014899999998</v>
+        <v>-23.6033124</v>
       </c>
       <c r="I99">
-        <v>-46.642051899999998</v>
+        <v>-46.661703500000002</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H100">
-        <v>-23.634152400000001</v>
+        <v>-23.533996999999999</v>
       </c>
       <c r="I100">
-        <v>-46.640015200000001</v>
+        <v>-46.688371438865403</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H101">
-        <v>-23.486466799999999</v>
+        <v>-23.626351700000001</v>
       </c>
       <c r="I101">
-        <v>-47.457478199999997</v>
+        <v>-46.632264200000002</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C102" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H102">
-        <v>-22.961923800000001</v>
+        <v>-23.648280629462899</v>
       </c>
       <c r="I102">
-        <v>-45.457812799999999</v>
+        <v>-46.764132473426798</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H103">
-        <v>-23.543154300000001</v>
+        <v>-23.539263299999998</v>
       </c>
       <c r="I103">
-        <v>-46.7320761</v>
+        <v>-46.607735900000002</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H104">
-        <v>-23.478211099999999</v>
+        <v>-23.602275594041469</v>
       </c>
       <c r="I104">
-        <v>-46.609409300000003</v>
+        <v>-46.611971037309942</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H105">
-        <v>-23.5673861</v>
+        <v>-23.576623319678902</v>
       </c>
       <c r="I105">
-        <v>-46.621552249999993</v>
+        <v>-46.741616088440203</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H106">
-        <v>-23.6018280596114</v>
+        <v>-23.5205211</v>
       </c>
       <c r="I106">
-        <v>-46.667353866112897</v>
+        <v>-46.546568499999999</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H107">
-        <v>-23.5603056</v>
+        <v>-23.526834300000001</v>
       </c>
       <c r="I107">
-        <v>-46.662652100000003</v>
+        <v>-46.7347264</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H108">
-        <v>-23.620011600000002</v>
+        <v>-23.554933057333329</v>
       </c>
       <c r="I108">
-        <v>-47.038958000000001</v>
+        <v>-46.605529913333328</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H109">
-        <v>-23.566077100000001</v>
+        <v>-23.482820149999998</v>
       </c>
       <c r="I109">
-        <v>-46.6918553</v>
+        <v>-46.644667738654661</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C110" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H110">
-        <v>-23.578374400000001</v>
+        <v>-23.529224395930601</v>
       </c>
       <c r="I110">
-        <v>-46.641305299999999</v>
+        <v>-46.667640830769699</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C111" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H111">
-        <v>-23.501903299999999</v>
+        <v>-23.534028500000002</v>
       </c>
       <c r="I111">
-        <v>-46.6263115</v>
+        <v>-46.681905800000003</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H112">
-        <v>-23.5679321</v>
+        <v>-23.597054499999999</v>
       </c>
       <c r="I112">
-        <v>-46.649376500000002</v>
+        <v>-46.636586700000002</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H113">
-        <v>-23.6279875</v>
+        <v>-23.561509099999999</v>
       </c>
       <c r="I113">
-        <v>-46.644018240000001</v>
+        <v>-46.658479800000002</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H114">
-        <v>-23.6925615</v>
+        <v>-23.6328</v>
       </c>
       <c r="I114">
-        <v>-46.518652500000002</v>
+        <v>-46.706212000000001</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H115">
-        <v>-23.5488526</v>
+        <v>-23.612565700000001</v>
       </c>
       <c r="I115">
-        <v>-46.758746600000002</v>
+        <v>-46.637725178475208</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H116">
-        <v>-23.668334600000001</v>
+        <v>-23.586390600000001</v>
       </c>
       <c r="I116">
-        <v>-46.540924699999998</v>
+        <v>-46.677268499999997</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H117">
-        <v>-23.6033124</v>
+        <v>-23.561421549999999</v>
       </c>
       <c r="I117">
-        <v>-46.661703500000002</v>
+        <v>-46.668298173168253</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H118">
-        <v>-23.533996999999999</v>
+        <v>-23.6473473</v>
       </c>
       <c r="I118">
-        <v>-46.688371438865403</v>
+        <v>-46.702212299999999</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H119">
-        <v>-23.626351700000001</v>
+        <v>-23.5467537</v>
       </c>
       <c r="I119">
-        <v>-46.632264200000002</v>
+        <v>-46.639217700000003</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H120">
-        <v>-23.648280629462899</v>
+        <v>-23.556177099999999</v>
       </c>
       <c r="I120">
-        <v>-46.764132473426798</v>
+        <v>-46.675334599999999</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H121">
-        <v>-23.539263299999998</v>
+        <v>-23.598733899999999</v>
       </c>
       <c r="I121">
-        <v>-46.607735900000002</v>
+        <v>-46.638152999954627</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H122">
-        <v>-23.602275594041469</v>
+        <v>-23.538988499999999</v>
       </c>
       <c r="I122">
-        <v>-46.611971037309942</v>
+        <v>-46.634604500000002</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H123">
-        <v>-23.576623319678902</v>
+        <v>-23.554495200000002</v>
       </c>
       <c r="I123">
-        <v>-46.741616088440203</v>
+        <v>-46.661207599999997</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H124">
-        <v>-23.5205211</v>
+        <v>-23.538619000000001</v>
       </c>
       <c r="I124">
-        <v>-46.546568499999999</v>
+        <v>-46.575718700000003</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H125">
-        <v>-23.526834300000001</v>
+        <v>-23.480145937819799</v>
       </c>
       <c r="I125">
-        <v>-46.7347264</v>
+        <v>-46.602747233001601</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H126">
-        <v>-23.554933057333329</v>
+        <v>-23.566714000000001</v>
       </c>
       <c r="I126">
-        <v>-46.605529913333328</v>
+        <v>-46.6514004</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H127">
-        <v>-23.482820149999998</v>
+        <v>-23.544175500000001</v>
       </c>
       <c r="I127">
-        <v>-46.644667738654661</v>
+        <v>-46.566622700000003</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H128">
-        <v>-23.529224395930601</v>
+        <v>-23.5871207</v>
       </c>
       <c r="I128">
-        <v>-46.667640830769699</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>113</v>
-      </c>
-      <c r="B129" t="s">
-        <v>383</v>
-      </c>
-      <c r="C129" t="s">
-        <v>456</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" t="s">
-        <v>385</v>
-      </c>
-      <c r="H129">
-        <v>-23.534028500000002</v>
-      </c>
-      <c r="I129">
-        <v>-46.681905800000003</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>113</v>
-      </c>
-      <c r="B130" t="s">
-        <v>386</v>
-      </c>
-      <c r="C130" t="s">
-        <v>456</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F130" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" t="s">
-        <v>388</v>
-      </c>
-      <c r="H130">
-        <v>-23.597054499999999</v>
-      </c>
-      <c r="I130">
-        <v>-46.636586700000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" t="s">
-        <v>389</v>
-      </c>
-      <c r="C131" t="s">
-        <v>456</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F131" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" t="s">
-        <v>391</v>
-      </c>
-      <c r="H131">
-        <v>-23.561509099999999</v>
-      </c>
-      <c r="I131">
-        <v>-46.658479800000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" t="s">
-        <v>392</v>
-      </c>
-      <c r="C132" t="s">
-        <v>456</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" t="s">
-        <v>394</v>
-      </c>
-      <c r="H132">
-        <v>-22.783210199999999</v>
-      </c>
-      <c r="I132">
-        <v>-47.174092399999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>113</v>
-      </c>
-      <c r="B133" t="s">
-        <v>395</v>
-      </c>
-      <c r="C133" t="s">
-        <v>456</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F133" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" t="s">
-        <v>397</v>
-      </c>
-      <c r="H133">
-        <v>-23.6328</v>
-      </c>
-      <c r="I133">
-        <v>-46.706212000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>113</v>
-      </c>
-      <c r="B134" t="s">
-        <v>398</v>
-      </c>
-      <c r="C134" t="s">
-        <v>456</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F134" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" t="s">
-        <v>400</v>
-      </c>
-      <c r="H134">
-        <v>-23.612565700000001</v>
-      </c>
-      <c r="I134">
-        <v>-46.637725178475208</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>113</v>
-      </c>
-      <c r="B135" t="s">
-        <v>401</v>
-      </c>
-      <c r="C135" t="s">
-        <v>456</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F135" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" t="s">
-        <v>403</v>
-      </c>
-      <c r="H135">
-        <v>-23.586390600000001</v>
-      </c>
-      <c r="I135">
-        <v>-46.677268499999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>113</v>
-      </c>
-      <c r="B136" t="s">
-        <v>404</v>
-      </c>
-      <c r="C136" t="s">
-        <v>456</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F136" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" t="s">
-        <v>406</v>
-      </c>
-      <c r="H136">
-        <v>-23.4530788</v>
-      </c>
-      <c r="I136">
-        <v>-47.399632199999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" t="s">
-        <v>407</v>
-      </c>
-      <c r="C137" t="s">
-        <v>456</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" t="s">
-        <v>409</v>
-      </c>
-      <c r="H137">
-        <v>-23.561421549999999</v>
-      </c>
-      <c r="I137">
-        <v>-46.668298173168253</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>113</v>
-      </c>
-      <c r="B138" t="s">
-        <v>410</v>
-      </c>
-      <c r="C138" t="s">
-        <v>456</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
-        <v>412</v>
-      </c>
-      <c r="H138">
-        <v>-23.6473473</v>
-      </c>
-      <c r="I138">
-        <v>-46.702212299999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>113</v>
-      </c>
-      <c r="B139" t="s">
-        <v>413</v>
-      </c>
-      <c r="C139" t="s">
-        <v>456</v>
-      </c>
-      <c r="D139" t="s">
-        <v>4</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" t="s">
-        <v>415</v>
-      </c>
-      <c r="H139">
-        <v>-22.326188699999999</v>
-      </c>
-      <c r="I139">
-        <v>-49.073134799999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>113</v>
-      </c>
-      <c r="B140" t="s">
-        <v>416</v>
-      </c>
-      <c r="C140" t="s">
-        <v>456</v>
-      </c>
-      <c r="D140" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G140" t="s">
-        <v>418</v>
-      </c>
-      <c r="H140">
-        <v>-23.5467537</v>
-      </c>
-      <c r="I140">
-        <v>-46.639217700000003</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141" t="s">
-        <v>419</v>
-      </c>
-      <c r="C141" t="s">
-        <v>456</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F141" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" t="s">
-        <v>421</v>
-      </c>
-      <c r="H141">
-        <v>-23.556177099999999</v>
-      </c>
-      <c r="I141">
-        <v>-46.675334599999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" t="s">
-        <v>456</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F142" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" t="s">
-        <v>424</v>
-      </c>
-      <c r="H142">
-        <v>-23.598733899999999</v>
-      </c>
-      <c r="I142">
-        <v>-46.638152999954627</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" t="s">
-        <v>425</v>
-      </c>
-      <c r="C143" t="s">
-        <v>456</v>
-      </c>
-      <c r="D143" t="s">
-        <v>4</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F143" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" t="s">
-        <v>427</v>
-      </c>
-      <c r="H143">
-        <v>-23.614517800000002</v>
-      </c>
-      <c r="I143">
-        <v>-46.917031100000003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>113</v>
-      </c>
-      <c r="B144" t="s">
-        <v>428</v>
-      </c>
-      <c r="C144" t="s">
-        <v>456</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F144" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" t="s">
-        <v>430</v>
-      </c>
-      <c r="H144">
-        <v>-23.538988499999999</v>
-      </c>
-      <c r="I144">
-        <v>-46.634604500000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>113</v>
-      </c>
-      <c r="B145" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" t="s">
-        <v>456</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>433</v>
-      </c>
-      <c r="H145">
-        <v>-23.554495200000002</v>
-      </c>
-      <c r="I145">
-        <v>-46.661207599999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>113</v>
-      </c>
-      <c r="B146" t="s">
-        <v>434</v>
-      </c>
-      <c r="C146" t="s">
-        <v>456</v>
-      </c>
-      <c r="D146" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F146" t="s">
-        <v>6</v>
-      </c>
-      <c r="G146" t="s">
-        <v>436</v>
-      </c>
-      <c r="H146">
-        <v>-23.538619000000001</v>
-      </c>
-      <c r="I146">
-        <v>-46.575718700000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" t="s">
-        <v>437</v>
-      </c>
-      <c r="C147" t="s">
-        <v>456</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F147" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" t="s">
-        <v>439</v>
-      </c>
-      <c r="H147">
-        <v>-23.480145937819799</v>
-      </c>
-      <c r="I147">
-        <v>-46.602747233001601</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>113</v>
-      </c>
-      <c r="B148" t="s">
-        <v>440</v>
-      </c>
-      <c r="C148" t="s">
-        <v>456</v>
-      </c>
-      <c r="D148" t="s">
-        <v>4</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F148" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" t="s">
-        <v>442</v>
-      </c>
-      <c r="H148">
-        <v>-23.566714000000001</v>
-      </c>
-      <c r="I148">
-        <v>-46.6514004</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>113</v>
-      </c>
-      <c r="B149" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" t="s">
-        <v>456</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F149" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" t="s">
-        <v>445</v>
-      </c>
-      <c r="H149">
-        <v>-23.544175500000001</v>
-      </c>
-      <c r="I149">
-        <v>-46.566622700000003</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>113</v>
-      </c>
-      <c r="B150" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" t="s">
-        <v>456</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" t="s">
-        <v>448</v>
-      </c>
-      <c r="H150">
-        <v>-23.5871207</v>
-      </c>
-      <c r="I150">
         <v>-46.640764500000003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:I150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I128" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
